--- a/DIFF_PREVIOUS/Mod_Korean/Lang/KR/Game/Block.xlsx
+++ b/DIFF_PREVIOUS/Mod_Korean/Lang/KR/Game/Block.xlsx
@@ -44,7 +44,7 @@
     <t xml:space="preserve">0</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.54</t>
+    <t xml:space="preserve">EA 23.55 fix 2</t>
   </si>
   <si>
     <t xml:space="preserve">1</t>

--- a/DIFF_PREVIOUS/Mod_Korean/Lang/KR/Game/Block.xlsx
+++ b/DIFF_PREVIOUS/Mod_Korean/Lang/KR/Game/Block.xlsx
@@ -44,7 +44,7 @@
     <t xml:space="preserve">0</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.55 fix 2</t>
+    <t xml:space="preserve">EA 23.61 fix 1</t>
   </si>
   <si>
     <t xml:space="preserve">1</t>

--- a/DIFF_PREVIOUS/Mod_Korean/Lang/KR/Game/Block.xlsx
+++ b/DIFF_PREVIOUS/Mod_Korean/Lang/KR/Game/Block.xlsx
@@ -44,7 +44,7 @@
     <t xml:space="preserve">0</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.61 fix 1</t>
+    <t xml:space="preserve">EA 23.66 fix 1</t>
   </si>
   <si>
     <t xml:space="preserve">1</t>

--- a/DIFF_PREVIOUS/Mod_Korean/Lang/KR/Game/Block.xlsx
+++ b/DIFF_PREVIOUS/Mod_Korean/Lang/KR/Game/Block.xlsx
@@ -44,7 +44,7 @@
     <t xml:space="preserve">0</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.66 fix 1</t>
+    <t xml:space="preserve">EA 23.67</t>
   </si>
   <si>
     <t xml:space="preserve">1</t>

--- a/DIFF_PREVIOUS/Mod_Korean/Lang/KR/Game/Block.xlsx
+++ b/DIFF_PREVIOUS/Mod_Korean/Lang/KR/Game/Block.xlsx
@@ -44,7 +44,7 @@
     <t xml:space="preserve">0</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.75 fix 1</t>
+    <t xml:space="preserve">EA 23.81 Patch 1</t>
   </si>
   <si>
     <t xml:space="preserve">1</t>

--- a/DIFF_PREVIOUS/Mod_Korean/Lang/KR/Game/Block.xlsx
+++ b/DIFF_PREVIOUS/Mod_Korean/Lang/KR/Game/Block.xlsx
@@ -44,7 +44,7 @@
     <t xml:space="preserve">0</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.81 Patch 1</t>
+    <t xml:space="preserve">EA 23.92 Patch 2</t>
   </si>
   <si>
     <t xml:space="preserve">1</t>

--- a/DIFF_PREVIOUS/Mod_Korean/Lang/KR/Game/Block.xlsx
+++ b/DIFF_PREVIOUS/Mod_Korean/Lang/KR/Game/Block.xlsx
@@ -44,7 +44,7 @@
     <t xml:space="preserve">0</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.92 Patch 2</t>
+    <t xml:space="preserve">EA 23.99 Patch 1</t>
   </si>
   <si>
     <t xml:space="preserve">1</t>

--- a/DIFF_PREVIOUS/Mod_Korean/Lang/KR/Game/Block.xlsx
+++ b/DIFF_PREVIOUS/Mod_Korean/Lang/KR/Game/Block.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="897" uniqueCount="466">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="927" uniqueCount="473">
   <si>
     <t xml:space="preserve">id</t>
   </si>
@@ -1421,6 +1421,27 @@
   </si>
   <si>
     <t xml:space="preserve">176</t>
+  </si>
+  <si>
+    <t xml:space="preserve">177</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EA 23.129</t>
+  </si>
+  <si>
+    <t xml:space="preserve">178</t>
+  </si>
+  <si>
+    <t xml:space="preserve">179</t>
+  </si>
+  <si>
+    <t xml:space="preserve">180</t>
+  </si>
+  <si>
+    <t xml:space="preserve">181</t>
+  </si>
+  <si>
+    <t xml:space="preserve">182</t>
   </si>
 </sst>
 </file>
@@ -1649,12 +1670,12 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:H179"/>
+  <dimension ref="A1:H185"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="2" topLeftCell="A144" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="2" topLeftCell="A162" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="G176" activeCellId="0" sqref="G176"/>
+      <selection pane="bottomLeft" activeCell="F178" activeCellId="0" sqref="F178"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.9609375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4706,6 +4727,108 @@
         <v>37</v>
       </c>
       <c r="E179" s="0" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="180" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A180" s="0" t="s">
+        <v>466</v>
+      </c>
+      <c r="B180" s="0" t="s">
+        <v>467</v>
+      </c>
+      <c r="C180" s="0" t="s">
+        <v>464</v>
+      </c>
+      <c r="D180" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="E180" s="0" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="181" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A181" s="0" t="s">
+        <v>468</v>
+      </c>
+      <c r="B181" s="0" t="s">
+        <v>467</v>
+      </c>
+      <c r="C181" s="0" t="s">
+        <v>464</v>
+      </c>
+      <c r="D181" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="E181" s="0" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="182" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A182" s="0" t="s">
+        <v>469</v>
+      </c>
+      <c r="B182" s="0" t="s">
+        <v>467</v>
+      </c>
+      <c r="C182" s="0" t="s">
+        <v>464</v>
+      </c>
+      <c r="D182" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="E182" s="0" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="183" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A183" s="0" t="s">
+        <v>470</v>
+      </c>
+      <c r="B183" s="0" t="s">
+        <v>467</v>
+      </c>
+      <c r="C183" s="0" t="s">
+        <v>464</v>
+      </c>
+      <c r="D183" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="E183" s="0" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="184" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A184" s="0" t="s">
+        <v>471</v>
+      </c>
+      <c r="B184" s="0" t="s">
+        <v>467</v>
+      </c>
+      <c r="C184" s="0" t="s">
+        <v>464</v>
+      </c>
+      <c r="D184" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="E184" s="0" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="185" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A185" s="0" t="s">
+        <v>472</v>
+      </c>
+      <c r="B185" s="0" t="s">
+        <v>467</v>
+      </c>
+      <c r="C185" s="0" t="s">
+        <v>464</v>
+      </c>
+      <c r="D185" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="E185" s="0" t="s">
         <v>38</v>
       </c>
     </row>

--- a/DIFF_PREVIOUS/Mod_Korean/Lang/KR/Game/Block.xlsx
+++ b/DIFF_PREVIOUS/Mod_Korean/Lang/KR/Game/Block.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="927" uniqueCount="473">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="962" uniqueCount="490">
   <si>
     <t xml:space="preserve">id</t>
   </si>
@@ -1442,6 +1442,57 @@
   </si>
   <si>
     <t xml:space="preserve">182</t>
+  </si>
+  <si>
+    <t xml:space="preserve">183</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EA 23.140</t>
+  </si>
+  <si>
+    <t xml:space="preserve">184</t>
+  </si>
+  <si>
+    <t xml:space="preserve">185</t>
+  </si>
+  <si>
+    <t xml:space="preserve">186</t>
+  </si>
+  <si>
+    <t xml:space="preserve">장식 벽(실험적)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fake wall(experimental)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">飾りの壁(実験的)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">187</t>
+  </si>
+  <si>
+    <t xml:space="preserve">해저 블록</t>
+  </si>
+  <si>
+    <t xml:space="preserve">undersea block</t>
+  </si>
+  <si>
+    <t xml:space="preserve">海底のブロック</t>
+  </si>
+  <si>
+    <t xml:space="preserve">188</t>
+  </si>
+  <si>
+    <t xml:space="preserve">189</t>
+  </si>
+  <si>
+    <t xml:space="preserve">산호 블록</t>
+  </si>
+  <si>
+    <t xml:space="preserve">coral block</t>
+  </si>
+  <si>
+    <t xml:space="preserve">珊瑚のブロック</t>
   </si>
 </sst>
 </file>
@@ -1454,7 +1505,7 @@
   <fonts count="4">
     <font>
       <sz val="10"/>
-      <name val="나눔고딕"/>
+      <name val="Noto Sans KR"/>
       <family val="2"/>
       <charset val="129"/>
     </font>
@@ -1670,17 +1721,17 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:H185"/>
+  <dimension ref="A1:H192"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="2" topLeftCell="A162" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="2" topLeftCell="A159" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="F178" activeCellId="0" sqref="F178"/>
+      <selection pane="bottomLeft" activeCell="H189" activeCellId="0" sqref="H189"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="7.9609375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.6796875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="1" style="0" width="14.68"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="1" style="0" width="16"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4830,6 +4881,125 @@
       </c>
       <c r="E185" s="0" t="s">
         <v>38</v>
+      </c>
+    </row>
+    <row r="186" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A186" s="0" t="s">
+        <v>473</v>
+      </c>
+      <c r="B186" s="0" t="s">
+        <v>474</v>
+      </c>
+      <c r="C186" s="0" t="s">
+        <v>464</v>
+      </c>
+      <c r="D186" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="E186" s="0" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="187" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A187" s="0" t="s">
+        <v>475</v>
+      </c>
+      <c r="B187" s="0" t="s">
+        <v>474</v>
+      </c>
+      <c r="C187" s="0" t="s">
+        <v>464</v>
+      </c>
+      <c r="D187" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="E187" s="0" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="188" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A188" s="0" t="s">
+        <v>476</v>
+      </c>
+      <c r="B188" s="0" t="s">
+        <v>474</v>
+      </c>
+      <c r="C188" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="D188" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="E188" s="0" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="189" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A189" s="0" t="s">
+        <v>477</v>
+      </c>
+      <c r="B189" s="0" t="s">
+        <v>474</v>
+      </c>
+      <c r="C189" s="0" t="s">
+        <v>478</v>
+      </c>
+      <c r="D189" s="0" t="s">
+        <v>479</v>
+      </c>
+      <c r="E189" s="0" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="190" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A190" s="0" t="s">
+        <v>481</v>
+      </c>
+      <c r="B190" s="0" t="s">
+        <v>474</v>
+      </c>
+      <c r="C190" s="0" t="s">
+        <v>482</v>
+      </c>
+      <c r="D190" s="0" t="s">
+        <v>483</v>
+      </c>
+      <c r="E190" s="0" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="191" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A191" s="0" t="s">
+        <v>485</v>
+      </c>
+      <c r="B191" s="0" t="s">
+        <v>474</v>
+      </c>
+      <c r="C191" s="0" t="s">
+        <v>482</v>
+      </c>
+      <c r="D191" s="0" t="s">
+        <v>483</v>
+      </c>
+      <c r="E191" s="0" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="192" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A192" s="0" t="s">
+        <v>486</v>
+      </c>
+      <c r="B192" s="0" t="s">
+        <v>474</v>
+      </c>
+      <c r="C192" s="0" t="s">
+        <v>487</v>
+      </c>
+      <c r="D192" s="0" t="s">
+        <v>488</v>
+      </c>
+      <c r="E192" s="0" t="s">
+        <v>489</v>
       </c>
     </row>
   </sheetData>

--- a/DIFF_PREVIOUS/Mod_Korean/Lang/KR/Game/Block.xlsx
+++ b/DIFF_PREVIOUS/Mod_Korean/Lang/KR/Game/Block.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="962" uniqueCount="490">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="972" uniqueCount="499">
   <si>
     <t xml:space="preserve">id</t>
   </si>
@@ -1493,6 +1493,33 @@
   </si>
   <si>
     <t xml:space="preserve">珊瑚のブロック</t>
+  </si>
+  <si>
+    <t xml:space="preserve">190</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EA 23.152</t>
+  </si>
+  <si>
+    <t xml:space="preserve">철조망</t>
+  </si>
+  <si>
+    <t xml:space="preserve">barbed wire fence</t>
+  </si>
+  <si>
+    <t xml:space="preserve">有刺鉄線のフェンス</t>
+  </si>
+  <si>
+    <t xml:space="preserve">191</t>
+  </si>
+  <si>
+    <t xml:space="preserve">스폰지 블록</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sponge block</t>
+  </si>
+  <si>
+    <t xml:space="preserve">スポンジのブロック</t>
   </si>
 </sst>
 </file>
@@ -1721,12 +1748,12 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:H192"/>
+  <dimension ref="A1:H194"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="2" topLeftCell="A159" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="H189" activeCellId="0" sqref="H189"/>
+      <selection pane="bottomLeft" activeCell="H22" activeCellId="0" sqref="H22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6796875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -5000,6 +5027,40 @@
       </c>
       <c r="E192" s="0" t="s">
         <v>489</v>
+      </c>
+    </row>
+    <row r="193" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A193" s="0" t="s">
+        <v>490</v>
+      </c>
+      <c r="B193" s="0" t="s">
+        <v>491</v>
+      </c>
+      <c r="C193" s="0" t="s">
+        <v>492</v>
+      </c>
+      <c r="D193" s="0" t="s">
+        <v>493</v>
+      </c>
+      <c r="E193" s="0" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="194" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A194" s="0" t="s">
+        <v>495</v>
+      </c>
+      <c r="B194" s="0" t="s">
+        <v>491</v>
+      </c>
+      <c r="C194" s="0" t="s">
+        <v>496</v>
+      </c>
+      <c r="D194" s="0" t="s">
+        <v>497</v>
+      </c>
+      <c r="E194" s="0" t="s">
+        <v>498</v>
       </c>
     </row>
   </sheetData>

--- a/DIFF_PREVIOUS/Mod_Korean/Lang/KR/Game/Block.xlsx
+++ b/DIFF_PREVIOUS/Mod_Korean/Lang/KR/Game/Block.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="972" uniqueCount="499">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1012" uniqueCount="532">
   <si>
     <t xml:space="preserve">id</t>
   </si>
@@ -1513,13 +1513,112 @@
     <t xml:space="preserve">191</t>
   </si>
   <si>
+    <t xml:space="preserve">EA 23.170</t>
+  </si>
+  <si>
+    <t xml:space="preserve">수수께끼의 블록</t>
+  </si>
+  <si>
+    <t xml:space="preserve">unknown block</t>
+  </si>
+  <si>
+    <t xml:space="preserve">謎のブロック</t>
+  </si>
+  <si>
+    <t xml:space="preserve">192</t>
+  </si>
+  <si>
+    <t xml:space="preserve">초콜릿 블록</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chocolate block</t>
+  </si>
+  <si>
+    <t xml:space="preserve">チョコレートのブロック</t>
+  </si>
+  <si>
+    <t xml:space="preserve">193</t>
+  </si>
+  <si>
     <t xml:space="preserve">스폰지 블록</t>
   </si>
   <si>
-    <t xml:space="preserve">sponge block</t>
+    <t xml:space="preserve">sponage block</t>
   </si>
   <si>
     <t xml:space="preserve">スポンジのブロック</t>
+  </si>
+  <si>
+    <t xml:space="preserve">194</t>
+  </si>
+  <si>
+    <t xml:space="preserve">쿠키 블록</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cookie block</t>
+  </si>
+  <si>
+    <t xml:space="preserve">クッキーのブロック</t>
+  </si>
+  <si>
+    <t xml:space="preserve">195</t>
+  </si>
+  <si>
+    <t xml:space="preserve">초콜릿 벽</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chocolate wall</t>
+  </si>
+  <si>
+    <t xml:space="preserve">チョコレートの壁</t>
+  </si>
+  <si>
+    <t xml:space="preserve">196</t>
+  </si>
+  <si>
+    <t xml:space="preserve">비스킷 블록</t>
+  </si>
+  <si>
+    <t xml:space="preserve">biscuit block</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ビスケットのブロック</t>
+  </si>
+  <si>
+    <t xml:space="preserve">197</t>
+  </si>
+  <si>
+    <t xml:space="preserve">비스킷 벽</t>
+  </si>
+  <si>
+    <t xml:space="preserve">biscuit wall</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ビスケットの壁</t>
+  </si>
+  <si>
+    <t xml:space="preserve">198</t>
+  </si>
+  <si>
+    <t xml:space="preserve">초콜릿 기둥</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chocolate pillar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">チョコレートの柱</t>
+  </si>
+  <si>
+    <t xml:space="preserve">199</t>
+  </si>
+  <si>
+    <t xml:space="preserve">비스킷 기둥</t>
+  </si>
+  <si>
+    <t xml:space="preserve">biscuit pillar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ビスケットの柱</t>
   </si>
 </sst>
 </file>
@@ -1532,7 +1631,7 @@
   <fonts count="4">
     <font>
       <sz val="10"/>
-      <name val="Noto Sans KR"/>
+      <name val="나눔고딕"/>
       <family val="2"/>
       <charset val="129"/>
     </font>
@@ -1748,17 +1847,17 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:H194"/>
+  <dimension ref="A1:H202"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="2" topLeftCell="A171" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="H22" activeCellId="0" sqref="H22"/>
+      <selection pane="bottomLeft" activeCell="M182" activeCellId="0" sqref="M182"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6796875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="7.9609375" defaultRowHeight="15" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="1" style="0" width="16"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="1" style="0" width="14.68"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5051,16 +5150,152 @@
         <v>495</v>
       </c>
       <c r="B194" s="0" t="s">
-        <v>491</v>
+        <v>496</v>
       </c>
       <c r="C194" s="0" t="s">
+        <v>497</v>
+      </c>
+      <c r="D194" s="0" t="s">
+        <v>498</v>
+      </c>
+      <c r="E194" s="0" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="195" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A195" s="0" t="s">
+        <v>500</v>
+      </c>
+      <c r="B195" s="0" t="s">
         <v>496</v>
       </c>
-      <c r="D194" s="0" t="s">
-        <v>497</v>
-      </c>
-      <c r="E194" s="0" t="s">
-        <v>498</v>
+      <c r="C195" s="0" t="s">
+        <v>501</v>
+      </c>
+      <c r="D195" s="0" t="s">
+        <v>502</v>
+      </c>
+      <c r="E195" s="0" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="196" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A196" s="0" t="s">
+        <v>504</v>
+      </c>
+      <c r="B196" s="0" t="s">
+        <v>496</v>
+      </c>
+      <c r="C196" s="0" t="s">
+        <v>505</v>
+      </c>
+      <c r="D196" s="0" t="s">
+        <v>506</v>
+      </c>
+      <c r="E196" s="0" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="197" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A197" s="0" t="s">
+        <v>508</v>
+      </c>
+      <c r="B197" s="0" t="s">
+        <v>496</v>
+      </c>
+      <c r="C197" s="0" t="s">
+        <v>509</v>
+      </c>
+      <c r="D197" s="0" t="s">
+        <v>510</v>
+      </c>
+      <c r="E197" s="0" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="198" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A198" s="0" t="s">
+        <v>512</v>
+      </c>
+      <c r="B198" s="0" t="s">
+        <v>496</v>
+      </c>
+      <c r="C198" s="0" t="s">
+        <v>513</v>
+      </c>
+      <c r="D198" s="0" t="s">
+        <v>514</v>
+      </c>
+      <c r="E198" s="0" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="199" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A199" s="0" t="s">
+        <v>516</v>
+      </c>
+      <c r="B199" s="0" t="s">
+        <v>496</v>
+      </c>
+      <c r="C199" s="0" t="s">
+        <v>517</v>
+      </c>
+      <c r="D199" s="0" t="s">
+        <v>518</v>
+      </c>
+      <c r="E199" s="0" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="200" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A200" s="0" t="s">
+        <v>520</v>
+      </c>
+      <c r="B200" s="0" t="s">
+        <v>496</v>
+      </c>
+      <c r="C200" s="0" t="s">
+        <v>521</v>
+      </c>
+      <c r="D200" s="0" t="s">
+        <v>522</v>
+      </c>
+      <c r="E200" s="0" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="201" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A201" s="0" t="s">
+        <v>524</v>
+      </c>
+      <c r="B201" s="0" t="s">
+        <v>496</v>
+      </c>
+      <c r="C201" s="0" t="s">
+        <v>525</v>
+      </c>
+      <c r="D201" s="0" t="s">
+        <v>526</v>
+      </c>
+      <c r="E201" s="0" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="202" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A202" s="0" t="s">
+        <v>528</v>
+      </c>
+      <c r="B202" s="0" t="s">
+        <v>496</v>
+      </c>
+      <c r="C202" s="0" t="s">
+        <v>529</v>
+      </c>
+      <c r="D202" s="0" t="s">
+        <v>530</v>
+      </c>
+      <c r="E202" s="0" t="s">
+        <v>531</v>
       </c>
     </row>
   </sheetData>

--- a/DIFF_PREVIOUS/Mod_Korean/Lang/KR/Game/Block.xlsx
+++ b/DIFF_PREVIOUS/Mod_Korean/Lang/KR/Game/Block.xlsx
@@ -44,7 +44,7 @@
     <t xml:space="preserve">0</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.188 Patch 2</t>
+    <t xml:space="preserve">EA 23.200</t>
   </si>
   <si>
     <t xml:space="preserve">1</t>

--- a/DIFF_PREVIOUS/Mod_Korean/Lang/KR/Game/Block.xlsx
+++ b/DIFF_PREVIOUS/Mod_Korean/Lang/KR/Game/Block.xlsx
@@ -44,7 +44,7 @@
     <t xml:space="preserve">0</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.200</t>
+    <t xml:space="preserve">EA 23.209 Patch 2</t>
   </si>
   <si>
     <t xml:space="preserve">1</t>

--- a/DIFF_PREVIOUS/Mod_Korean/Lang/KR/Game/Block.xlsx
+++ b/DIFF_PREVIOUS/Mod_Korean/Lang/KR/Game/Block.xlsx
@@ -44,7 +44,7 @@
     <t xml:space="preserve">0</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.209 Patch 2</t>
+    <t xml:space="preserve">EA 23.212</t>
   </si>
   <si>
     <t xml:space="preserve">1</t>

--- a/DIFF_PREVIOUS/Mod_Korean/Lang/KR/Game/Block.xlsx
+++ b/DIFF_PREVIOUS/Mod_Korean/Lang/KR/Game/Block.xlsx
@@ -44,7 +44,7 @@
     <t xml:space="preserve">0</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.229 Patch 3</t>
+    <t xml:space="preserve">EA 23.237 Patch 1</t>
   </si>
   <si>
     <t xml:space="preserve">1</t>
